--- a/File1.xlsx
+++ b/File1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GIT Repository\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GIT Repository_Demo1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9C2902-97BC-4A13-80C7-CF62090105E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{758514ED-B39D-4079-BD35-CAAFA0FC0B67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,6 +22,14 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>gihub demo added</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -337,10 +345,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -368,6 +376,11 @@
         <v>7</v>
       </c>
     </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
